--- a/data/trans_camb/P1410-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1410-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.58276284006413</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.435737144012359</v>
+        <v>1.435737144012358</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.886169156772463</v>
@@ -664,7 +664,7 @@
         <v>-0.02804213287912402</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.664512416992262</v>
+        <v>0.6645124169922613</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.928114787177502</v>
+        <v>-4.652089029514736</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.549372448870318</v>
+        <v>-4.460603044440537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.475458376756734</v>
+        <v>-2.757101321010844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.229493582754748</v>
+        <v>-3.039091594477212</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09837685105086168</v>
+        <v>0.1053962070024162</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7626349714289702</v>
+        <v>-0.6719219408720316</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.50851244393156</v>
+        <v>-3.288010347665946</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.81699001703079</v>
+        <v>-2.138783675132614</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.186926909855935</v>
+        <v>-1.031255743602054</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1004508521446297</v>
+        <v>-0.1461817760479413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8712587351786267</v>
+        <v>0.78139635972758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.942110625461015</v>
+        <v>2.914006181549144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02320545200432973</v>
+        <v>0.01954770426132994</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.195870079243916</v>
+        <v>5.333534532506441</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.12590894652935</v>
+        <v>3.18816886581543</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.2267796180123696</v>
+        <v>-0.1594331801623488</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.883181691673436</v>
+        <v>1.843530347264557</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.244346297587627</v>
+        <v>2.44531181301828</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.008055632982590988</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1908937585717389</v>
+        <v>0.1908937585717387</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.762271182759463</v>
+        <v>-0.7431273876463996</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7269175294780215</v>
+        <v>-0.7420291794543988</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3784044947158164</v>
+        <v>-0.397336756830866</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-0.160179942037205</v>
+        <v>-0.1548087596886126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3185445876049385</v>
+        <v>-0.353223715002798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7734262872039165</v>
+        <v>-0.7539968118309454</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4278807184356671</v>
+        <v>-0.4777218109480878</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2643851584746817</v>
+        <v>-0.231065977481138</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1432738474695793</v>
+        <v>0.03818443775530091</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3898908720867357</v>
+        <v>0.2491220714519911</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8604706739725759</v>
+        <v>0.8481737703580099</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>9.280901888651456</v>
+        <v>11.59299271267295</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.752767419647525</v>
+        <v>6.513071844972105</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02267579293718842</v>
+        <v>0.009682358237269187</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7740998062979161</v>
+        <v>0.6913596009098247</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9042699996716296</v>
+        <v>1.007378813704068</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
         <v>0.1967301997041884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7900230909312599</v>
+        <v>0.7900230909312591</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.4501159035443202</v>
@@ -865,7 +865,7 @@
         <v>0.09562367354543529</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.3225354319772852</v>
+        <v>-0.322535431977285</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.4397957308887177</v>
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.908504896280386</v>
+        <v>-3.024795923319226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.687413967695173</v>
+        <v>-2.458266621726487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.731847105415787</v>
+        <v>-1.975681076063534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.285319368135413</v>
+        <v>-2.458676470163756</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.843349970787826</v>
+        <v>-1.770905725920811</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.344001117593195</v>
+        <v>-2.141599540128353</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.997526345680699</v>
+        <v>-2.085776575010299</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.365834751318064</v>
+        <v>-1.46546136971082</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.211676114476519</v>
+        <v>-1.264473002323818</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.110034405858358</v>
+        <v>2.043556310000352</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.036352153536078</v>
+        <v>2.854964106816567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.050700149417781</v>
+        <v>2.988186199652145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.442743179552275</v>
+        <v>1.609110193030402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.924624471116277</v>
+        <v>2.116701423644598</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.061260453911876</v>
+        <v>1.006354853488731</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.073603278011539</v>
+        <v>1.016553522072297</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.850395577410428</v>
+        <v>1.917859418658428</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.71962240294606</v>
+        <v>1.690417851092169</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +961,7 @@
         <v>0.05857967843087755</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2352424726315969</v>
+        <v>0.2352424726315967</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2860290000228415</v>
@@ -970,7 +970,7 @@
         <v>0.06076466862721814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2049571818146487</v>
+        <v>-0.2049571818146486</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1787752376088731</v>
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6636439977673559</v>
+        <v>-0.6693061102399575</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5745752461130154</v>
+        <v>-0.5431146029822166</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3595170620256082</v>
+        <v>-0.4019073006533704</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7790538864806628</v>
+        <v>-0.7823311257495216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.775610684630755</v>
+        <v>-0.7894432553871472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6386587542470259</v>
+        <v>-0.6457963331192059</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4667017499762378</v>
+        <v>-0.486557762073681</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.369276815725508</v>
+        <v>-0.3545732106487953</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.082817787768479</v>
+        <v>1.029190807949921</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.50487088978084</v>
+        <v>1.522098857129926</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.538878412164645</v>
+        <v>1.465232007373375</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.493832566135325</v>
+        <v>3.171497690651885</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.516174545510009</v>
+        <v>4.133198114440333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.963945522278281</v>
+        <v>1.913212634500438</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6413934780219671</v>
+        <v>0.6492176129827373</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.190537073362109</v>
+        <v>1.203622737154443</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9867663881766606</v>
+        <v>1.068232615981297</v>
       </c>
     </row>
     <row r="16">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.132105182185489</v>
+        <v>-2.28617442737</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.887437171041518</v>
+        <v>-2.678557354408374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.013604195989369</v>
+        <v>-0.9733448305379385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.554070042159329</v>
+        <v>-1.150060025231575</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.119384611505647</v>
+        <v>0.8748655888127108</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7986649731652122</v>
+        <v>1.054115082485732</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.703609212460016</v>
+        <v>-1.313092433881511</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.063535149929714</v>
+        <v>-1.219869203077086</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002585341664023945</v>
+        <v>0.1860409800928052</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.864906237353128</v>
+        <v>2.485266142478277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.197034248846431</v>
+        <v>2.292423489320357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.291138130347394</v>
+        <v>4.661261776551789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.187506756680831</v>
+        <v>5.340031030096666</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.12527921629322</v>
+        <v>10.51136468681305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.284168698458821</v>
+        <v>10.12404586648521</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.39374072830966</v>
+        <v>2.473081006786565</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.547075102518733</v>
+        <v>3.32853904866803</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.840837197302255</v>
+        <v>4.734875067561066</v>
       </c>
     </row>
     <row r="19">
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.364109724286691</v>
+        <v>-0.391226501389615</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4960705498248886</v>
+        <v>-0.4681611272134308</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1805921231297815</v>
+        <v>-0.1663777111516441</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5932002154776511</v>
+        <v>-0.483119129434764</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03683033266463338</v>
+        <v>-0.1232739172224439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1883824197732139</v>
+        <v>-0.07379736082407931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3480250664883807</v>
+        <v>-0.2730591198837329</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2189452428222516</v>
+        <v>-0.255765298917308</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01899845243204325</v>
+        <v>0.01796603896025236</v>
       </c>
     </row>
     <row r="21">
@@ -1239,25 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8557531519837182</v>
+        <v>0.7082615226018437</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.632310172916266</v>
+        <v>0.6562070704169172</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.225263930994327</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+        <v>1.458886127972918</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>10.24694040752399</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>14.53649628863219</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>13.19178853827311</v>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>0.8149381222633243</v>
+        <v>0.8141491652294462</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.142701199154497</v>
+        <v>1.049672946667273</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.554113691008179</v>
+        <v>1.652863204649446</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1302,7 @@
         <v>-1.189145656778038</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.388724611924629</v>
+        <v>-0.3887246119246297</v>
       </c>
     </row>
     <row r="23">
@@ -1307,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.994827632622504</v>
+        <v>-2.996742401736784</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.898129805983786</v>
+        <v>-3.124649702845755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.60660813595084</v>
+        <v>-1.502520789715098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.012889392351158</v>
+        <v>-3.079672054004419</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.40937200703843</v>
+        <v>-2.674269696555169</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.650949793799992</v>
+        <v>-2.801153656132008</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.668606501869878</v>
+        <v>-2.647747754657485</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.550345192093745</v>
+        <v>-2.536467825303625</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.687055355377207</v>
+        <v>-1.689781204005405</v>
       </c>
     </row>
     <row r="24">
@@ -1342,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5176734662299064</v>
+        <v>0.541455522667037</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4811887495523319</v>
+        <v>0.3594308911939777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.069958972710682</v>
+        <v>2.168558389923651</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3000434711996619</v>
+        <v>0.5409829032702035</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.185409966467039</v>
+        <v>1.18251154615678</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4387398639001749</v>
+        <v>0.4557674997560952</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.04653395180604541</v>
+        <v>-0.1478180996708674</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07976310802026386</v>
+        <v>0.1837379378461013</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8577796576689131</v>
+        <v>0.8430605646012482</v>
       </c>
     </row>
     <row r="25">
@@ -1392,7 +1398,7 @@
         <v>-0.2057013688418163</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2968857115194331</v>
+        <v>-0.2968857115194332</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2791839407738436</v>
@@ -1401,7 +1407,7 @@
         <v>-0.2425376363873762</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.07928410455389459</v>
+        <v>-0.07928410455389473</v>
       </c>
     </row>
     <row r="26">
@@ -1412,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4443611697916936</v>
+        <v>-0.4554476316244923</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.447055287857881</v>
+        <v>-0.4619438860143255</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2362456747424043</v>
+        <v>-0.2184712527529435</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6707335908062004</v>
+        <v>-0.6865338408498119</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5589859001186734</v>
+        <v>-0.5801021362553126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5755338167666711</v>
+        <v>-0.6006768242617855</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4716087362647559</v>
+        <v>-0.4831498138131847</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4413302578542541</v>
+        <v>-0.4561413495559556</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3001912632229467</v>
+        <v>-0.2921973155688316</v>
       </c>
     </row>
     <row r="27">
@@ -1447,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1181355366848598</v>
+        <v>0.1209816483221658</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09899781599826815</v>
+        <v>0.07864201939223765</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4283533525424524</v>
+        <v>0.4602804313919437</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1774790867716623</v>
+        <v>0.2447561654918328</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5035400457470457</v>
+        <v>0.4785522348634856</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1718681059454012</v>
+        <v>0.2177138480428646</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.004104252020231418</v>
+        <v>-0.03724084882094406</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02911514735794768</v>
+        <v>0.04098689707970857</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1955482474535075</v>
+        <v>0.2017683730416539</v>
       </c>
     </row>
     <row r="28">
@@ -1492,7 +1498,7 @@
         <v>-0.8226594335349515</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9267996931465836</v>
+        <v>0.9267996931465822</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.744926679375439</v>
@@ -1510,7 +1516,7 @@
         <v>-0.755760238993753</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.184028847376384</v>
+        <v>1.184028847376383</v>
       </c>
     </row>
     <row r="29">
@@ -1521,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.975625075520706</v>
+        <v>-3.782958601045035</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.058565470038315</v>
+        <v>-3.99114281062049</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.317133866876187</v>
+        <v>-2.285727357083716</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.323219011148972</v>
+        <v>-0.8795240021275643</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.397366650528166</v>
+        <v>-2.892055181166409</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.9369644819346058</v>
+        <v>-1.111814739093204</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.254897693330204</v>
+        <v>-1.439377828577497</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.602937360224717</v>
+        <v>-2.679399413003059</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.7438335543168414</v>
+        <v>-0.6318095486166126</v>
       </c>
     </row>
     <row r="30">
@@ -1556,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.33719970993321</v>
+        <v>2.375347573687035</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.76971647485616</v>
+        <v>1.991203521775976</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.661139998911066</v>
+        <v>3.727363734031762</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.993950399361493</v>
+        <v>4.218767376446318</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.57874277920765</v>
+        <v>1.689852543041006</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.553174531934334</v>
+        <v>3.36779302148723</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.700778082066341</v>
+        <v>2.656748262978674</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9395786892835963</v>
+        <v>1.077167348217496</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.759464804914035</v>
+        <v>2.873914774142705</v>
       </c>
     </row>
     <row r="31">
@@ -1597,7 +1603,7 @@
         <v>-0.1586945718526061</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.178783679493022</v>
+        <v>0.1787836794930217</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3517441649649247</v>
@@ -1615,7 +1621,7 @@
         <v>-0.1497779869736799</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2346530660503127</v>
+        <v>0.2346530660503126</v>
       </c>
     </row>
     <row r="32">
@@ -1626,31 +1632,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5550920565899095</v>
+        <v>-0.5533429709366104</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5410758675014534</v>
+        <v>-0.5319198603982551</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3419557522621701</v>
+        <v>-0.3162930776990723</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1982614342796942</v>
+        <v>-0.1559249281636542</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5124896926082882</v>
+        <v>-0.4806339636103649</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1572272488568507</v>
+        <v>-0.1627343448539384</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2057930920867029</v>
+        <v>-0.2220758390074988</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4385440307772061</v>
+        <v>-0.4199281292915749</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1183539723413152</v>
+        <v>-0.1129128283356995</v>
       </c>
     </row>
     <row r="33">
@@ -1661,31 +1667,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7000839743158184</v>
+        <v>0.7178089803502937</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5488288508758692</v>
+        <v>0.5736711210706241</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.12460785927064</v>
+        <v>1.139181714805457</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.077300852340484</v>
+        <v>1.112686867435387</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4197734449662339</v>
+        <v>0.5136891072567119</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.017939182670117</v>
+        <v>0.9549866579005409</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6567142413000617</v>
+        <v>0.6637166467872593</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2280733196524422</v>
+        <v>0.2822079682243896</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6879951922705929</v>
+        <v>0.719983116394097</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1721,7 @@
         <v>1.93095981956358</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.05131910283072</v>
+        <v>2.051319102830718</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.152083893095218</v>
@@ -1724,7 +1730,7 @@
         <v>1.472231000677462</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.841623431896837</v>
+        <v>1.841623431896838</v>
       </c>
     </row>
     <row r="35">
@@ -1735,31 +1741,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0</v>
+        <v>-0.1982421137686331</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.6178252004537791</v>
+        <v>-0.6606955159525928</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.1045890465071787</v>
+        <v>-0.1905960959136031</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7472056224690192</v>
+        <v>-0.7610489142082189</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.108424313358024</v>
+        <v>0.05884480418701161</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.213380433750573</v>
+        <v>0.2729832506259185</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3351570869418884</v>
+        <v>-0.3997480612006952</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1205876152149569</v>
+        <v>-0.3050804389026472</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.1945696153894703</v>
+        <v>0.2383488227428507</v>
       </c>
     </row>
     <row r="36">
@@ -1770,31 +1776,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.49931034841107</v>
+        <v>4.475098162600919</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.636131217850334</v>
+        <v>1.345928315679436</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.576708459476282</v>
+        <v>6.859665216793749</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.893364575197181</v>
+        <v>3.11275513990669</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.931892422255304</v>
+        <v>4.09379518472068</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.746041968180851</v>
+        <v>3.737463727531179</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.890772515327091</v>
+        <v>2.715187041801409</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.259247009965713</v>
+        <v>3.156859439880294</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.489313069596628</v>
+        <v>3.478660840353197</v>
       </c>
     </row>
     <row r="37">
@@ -1820,7 +1826,7 @@
         <v>0.4022184453897424</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4272892538620149</v>
+        <v>0.4272892538620147</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.292818928963515</v>
@@ -1829,7 +1835,7 @@
         <v>0.3741889869209628</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.4680754623114718</v>
+        <v>0.468075462311472</v>
       </c>
     </row>
     <row r="38">
@@ -1843,22 +1849,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.1315794838241559</v>
+        <v>-0.1454463996414154</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03021604149767154</v>
+        <v>0.006132006290341671</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02811534912325901</v>
+        <v>0.03553548790686482</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.07397437954349427</v>
+        <v>-0.09851004749089612</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02843019341552686</v>
+        <v>-0.06936012084831122</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.03917236035301347</v>
+        <v>0.0476318064816943</v>
       </c>
     </row>
     <row r="39">
@@ -1872,22 +1878,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.7176342520396568</v>
+        <v>0.7955458399799213</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9860984907388579</v>
+        <v>1.015809246732231</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9904123374773731</v>
+        <v>0.9695316664072895</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8667050864716362</v>
+        <v>0.8573081048286303</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.025093568882175</v>
+        <v>0.9616707502251268</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.120203406040641</v>
+        <v>1.038209270305804</v>
       </c>
     </row>
     <row r="40">
@@ -1917,7 +1923,7 @@
         <v>0.7665358909856979</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.7202901668112611</v>
+        <v>0.7202901668112626</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.1456454618198197</v>
@@ -1937,31 +1943,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.685916213125851</v>
+        <v>-1.738557370347895</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.758723829375915</v>
+        <v>-1.745794542004407</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.1716013773253413</v>
+        <v>-0.2200201442787372</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.5826768555163691</v>
+        <v>-0.5180569545290437</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.2958845867023921</v>
+        <v>-0.1519144881195274</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.2496692614767346</v>
+        <v>-0.1533423043937804</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.8440649351217663</v>
+        <v>-0.847121658303607</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.6708398714970015</v>
+        <v>-0.753183454887318</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.1024615854374143</v>
+        <v>0.139846160516385</v>
       </c>
     </row>
     <row r="42">
@@ -1972,31 +1978,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.253214323633522</v>
+        <v>0.2575020755666885</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.01822527284331139</v>
+        <v>0.1265592032587183</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.759019194505655</v>
+        <v>1.826307692061643</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.346380141982012</v>
+        <v>1.330923546618197</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.785414530488958</v>
+        <v>1.804951829604295</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.490722982382751</v>
+        <v>1.627476205599316</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.5455235205431083</v>
+        <v>0.5186893854494861</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.692104543278969</v>
+        <v>0.6131503954588106</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.405027121747811</v>
+        <v>1.428261173222781</v>
       </c>
     </row>
     <row r="43">
@@ -2022,7 +2028,7 @@
         <v>0.2043758789634869</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1920457185135964</v>
+        <v>0.1920457185135967</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.0349740298131169</v>
@@ -2042,31 +2048,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3368959671050072</v>
+        <v>-0.3378359829294066</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3450202049740093</v>
+        <v>-0.3375526442939552</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.03376445933696941</v>
+        <v>-0.03821627720286395</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1335233217834935</v>
+        <v>-0.121516128710633</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07548203370101134</v>
+        <v>-0.04671603831156948</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.05710211555485315</v>
+        <v>-0.03646201225626231</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1890775295822323</v>
+        <v>-0.1900799986234923</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1538272493502322</v>
+        <v>-0.1666426001145637</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.02183230133029294</v>
+        <v>0.03385240009852624</v>
       </c>
     </row>
     <row r="45">
@@ -2077,31 +2083,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.06708539748367849</v>
+        <v>0.06521267163338393</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.0063113923440499</v>
+        <v>0.03541169506787143</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4279257130961161</v>
+        <v>0.4544708920538133</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4039556548809742</v>
+        <v>0.4292037297350867</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5385292466218538</v>
+        <v>0.5540945535991317</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4467729740950258</v>
+        <v>0.5160147137725228</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1407893718531482</v>
+        <v>0.1376641537931895</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1835625494176202</v>
+        <v>0.1584649603579476</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.362446226619121</v>
+        <v>0.3677890300249791</v>
       </c>
     </row>
     <row r="46">
